--- a/src/test/java/day12_webtables_excel/ulkeler.xlsx
+++ b/src/test/java/day12_webtables_excel/ulkeler.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68D1A50-D932-4B32-9800-BBC0BE1CCF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EF5701-E6AF-45E4-8E3F-4782C5DF3740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="576">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1743,45 +1743,13 @@
     <t>Zimbabve</t>
   </si>
   <si>
-    <t>ilk sutun key, digerleri value olsun</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>"Belarus"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1A1A1A"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve"> "Minsk, Belarus, Minsk"</t>
-    </r>
-  </si>
-  <si>
-    <t>NUFUS</t>
-  </si>
-  <si>
-    <t>1000000</t>
+    <t>Nufus</t>
+  </si>
+  <si>
+    <t>150000000</t>
+  </si>
+  <si>
+    <t>300000000</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +1757,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1808,20 +1776,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF1A1A1A"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="4" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="162"/>
@@ -1853,7 +1807,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1913,20 +1867,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1950,9 +1895,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2235,19 +2177,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F191"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D17"/>
+      <selection activeCell="E1" sqref="E1:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="36.28515625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="36.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2261,10 +2203,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2278,7 +2220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2292,13 +2234,10 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>576</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2312,7 +2251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2326,7 +2265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2340,7 +2279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2353,8 +2292,11 @@
       <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2368,7 +2310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2382,7 +2324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2396,7 +2338,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2410,7 +2352,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2424,7 +2366,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2438,7 +2380,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2452,7 +2394,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2466,7 +2408,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -2480,7 +2422,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>52</v>
       </c>
@@ -2493,11 +2435,8 @@
       <c r="D17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
@@ -2511,7 +2450,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>58</v>
       </c>
@@ -2525,7 +2464,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
@@ -2539,7 +2478,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>62</v>
       </c>
@@ -2553,7 +2492,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>65</v>
       </c>
@@ -2567,7 +2506,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>68</v>
       </c>
@@ -2581,7 +2520,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>72</v>
       </c>
@@ -2595,7 +2534,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>75</v>
       </c>
@@ -2609,7 +2548,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>78</v>
       </c>
@@ -2623,7 +2562,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>80</v>
       </c>
@@ -2637,7 +2576,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>84</v>
       </c>
@@ -2651,7 +2590,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>86</v>
       </c>
@@ -2665,7 +2604,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>88</v>
       </c>
@@ -2679,7 +2618,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
@@ -2693,7 +2632,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>94</v>
       </c>
